--- a/biology/Zoologie/Indriidae/Indriidae.xlsx
+++ b/biology/Zoologie/Indriidae/Indriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Indridae · Indriidés, Indridés
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille comprend les indris, les plus gros des lémuriens actuels, des animaux diurnes, sans queue ou avec une queue très courte, au pelage noir et blanc, les avahis, des petits lémuriens nocturnes à la fourrure laineuse  uniformément brune et à la longue queue, et les sifakas, des lémuriens diurnes de taille moyenne, à la fourrure soyeuse, brun et blanc, eux aussi avec une longue queue.
 Leur museau large et leur face plus aplatie les distinguent des Lemuridae.
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
